--- a/trunk/2015/Getränke/Getränkebestand Glarea Nox 2015.xlsx
+++ b/trunk/2015/Getränke/Getränkebestand Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -1534,8 +1534,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10137,7 +10137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -10328,11 +10328,11 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11041,10 +11041,10 @@
       <c r="M23" s="120"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="139" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="50">
@@ -11103,10 +11103,10 @@
       <c r="M25" s="120"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="138" t="s">
+      <c r="A26" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="139" t="s">
         <v>139</v>
       </c>
       <c r="C26" s="50">
@@ -11134,10 +11134,10 @@
       <c r="M26" s="120"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="139" t="s">
         <v>140</v>
       </c>
       <c r="C27" s="50">
@@ -11165,10 +11165,10 @@
       <c r="M27" s="120"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="139" t="s">
         <v>141</v>
       </c>
       <c r="C28" s="50">
@@ -12657,7 +12657,7 @@
       <c r="M77" s="120"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="139"/>
+      <c r="A78" s="138"/>
       <c r="B78" s="137" t="s">
         <v>171</v>
       </c>

--- a/trunk/2015/Getränke/Getränkebestand Glarea Nox 2015.xlsx
+++ b/trunk/2015/Getränke/Getränkebestand Glarea Nox 2015.xlsx
@@ -1534,8 +1534,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2010,10 +2010,10 @@
   <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2167,19 +2167,23 @@
       <c r="C3" s="57">
         <v>0.7</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="D3" s="15">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16">
+        <v>12.228</v>
+      </c>
       <c r="F3" s="51">
         <f>E3/C3</f>
-        <v>0</v>
+        <v>17.46857142857143</v>
       </c>
       <c r="G3" s="52">
         <f>E3*D3</f>
-        <v>0</v>
+        <v>146.73599999999999</v>
       </c>
       <c r="H3" s="50">
         <f t="shared" ref="H3" si="0">C3*D3</f>
-        <v>0</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="I3" s="24">
         <f>IF(O3&gt;P3,D3-O3+P3,D3)</f>
@@ -2191,20 +2195,20 @@
       </c>
       <c r="K3" s="54">
         <f t="shared" ref="K3" si="1">D3-I3</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L3" s="124">
         <f t="shared" ref="L3" si="2">K3*E3</f>
-        <v>0</v>
+        <v>146.73599999999999</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="55">
         <f>P3+D3</f>
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="O3" s="55">
         <f>N3-M3</f>
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="P3" s="17">
         <v>4.5</v>
@@ -2359,19 +2363,23 @@
       <c r="C5" s="57">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="15">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16">
+        <v>10.453846</v>
+      </c>
       <c r="F5" s="51">
         <f t="shared" ref="F5:F77" si="6">E5/C5</f>
-        <v>0</v>
+        <v>10.453846</v>
       </c>
       <c r="G5" s="52">
         <f t="shared" ref="G5:G77" si="7">E5*D5</f>
-        <v>0</v>
+        <v>135.89999800000001</v>
       </c>
       <c r="H5" s="50">
         <f t="shared" ref="H5:H77" si="8">C5*D5</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I5" s="24">
         <f t="shared" ref="I5:I77" si="9">IF(O5&gt;P5,D5-O5+P5,D5)</f>
@@ -2383,20 +2391,20 @@
       </c>
       <c r="K5" s="54">
         <f t="shared" ref="K5:K66" si="11">D5-I5</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L5" s="124">
         <f t="shared" ref="L5:L66" si="12">K5*E5</f>
-        <v>0</v>
+        <v>135.89999800000001</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="55">
         <f t="shared" ref="N5:N42" si="13">P5+D5</f>
-        <v>4.75</v>
+        <v>17.75</v>
       </c>
       <c r="O5" s="55">
         <f t="shared" ref="O5:O42" si="14">N5-M5</f>
-        <v>4.75</v>
+        <v>17.75</v>
       </c>
       <c r="P5" s="17">
         <v>4.75</v>
@@ -2647,19 +2655,23 @@
       <c r="C8" s="57">
         <v>0.7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="15">
+        <v>21</v>
+      </c>
+      <c r="E8" s="16">
+        <v>11.7366666</v>
+      </c>
       <c r="F8" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16.766666571428573</v>
       </c>
       <c r="G8" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>246.4699986</v>
       </c>
       <c r="H8" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I8" s="24">
         <f t="shared" si="9"/>
@@ -2671,20 +2683,20 @@
       </c>
       <c r="K8" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L8" s="124">
         <f>K8*E8</f>
-        <v>0</v>
+        <v>246.4699986</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="55">
         <f t="shared" si="13"/>
-        <v>4.75</v>
+        <v>25.75</v>
       </c>
       <c r="O8" s="55">
         <f t="shared" si="14"/>
-        <v>4.75</v>
+        <v>25.75</v>
       </c>
       <c r="P8" s="17">
         <v>4.75</v>
@@ -2743,19 +2755,23 @@
       <c r="C9" s="57">
         <v>0.7</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>14.388</v>
+      </c>
       <c r="F9" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20.554285714285715</v>
       </c>
       <c r="G9" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>28.776</v>
       </c>
       <c r="H9" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I9" s="24">
         <f t="shared" si="9"/>
@@ -2767,20 +2783,20 @@
       </c>
       <c r="K9" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>28.776</v>
       </c>
       <c r="M9" s="20"/>
       <c r="N9" s="55">
         <f t="shared" si="13"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="O9" s="55">
         <f t="shared" si="14"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="P9" s="17">
         <v>5.5</v>
@@ -2935,19 +2951,23 @@
       <c r="C11" s="57">
         <v>0.7</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="15">
+        <v>12</v>
+      </c>
+      <c r="E11" s="16">
+        <v>12.972</v>
+      </c>
       <c r="F11" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18.53142857142857</v>
       </c>
       <c r="G11" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>155.66399999999999</v>
       </c>
       <c r="H11" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="I11" s="24">
         <f t="shared" si="9"/>
@@ -2959,20 +2979,20 @@
       </c>
       <c r="K11" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L11" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>155.66399999999999</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="55">
         <f t="shared" si="13"/>
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="O11" s="55">
         <f t="shared" si="14"/>
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="P11" s="17">
         <v>4.5</v>
@@ -3127,19 +3147,23 @@
       <c r="C13" s="57">
         <v>0.7</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="15">
+        <v>13</v>
+      </c>
+      <c r="E13" s="16">
+        <v>8.99</v>
+      </c>
       <c r="F13" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.842857142857143</v>
       </c>
       <c r="G13" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>116.87</v>
       </c>
       <c r="H13" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="I13" s="24">
         <f t="shared" si="9"/>
@@ -3151,20 +3175,20 @@
       </c>
       <c r="K13" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L13" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>116.87</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="55">
         <f t="shared" si="13"/>
-        <v>12.75</v>
+        <v>25.75</v>
       </c>
       <c r="O13" s="55">
         <f t="shared" si="14"/>
-        <v>12.75</v>
+        <v>25.75</v>
       </c>
       <c r="P13" s="17">
         <v>12.75</v>
@@ -3415,19 +3439,23 @@
       <c r="C16" s="57">
         <v>0.7</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="15">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16">
+        <v>8.99</v>
+      </c>
       <c r="F16" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.842857142857143</v>
       </c>
       <c r="G16" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>26.97</v>
       </c>
       <c r="H16" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="I16" s="24">
         <f t="shared" si="9"/>
@@ -3439,20 +3467,20 @@
       </c>
       <c r="K16" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>26.97</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="55">
         <f t="shared" si="13"/>
-        <v>3.75</v>
+        <v>6.75</v>
       </c>
       <c r="O16" s="55">
         <f t="shared" si="14"/>
-        <v>3.75</v>
+        <v>6.75</v>
       </c>
       <c r="P16" s="17">
         <v>3.75</v>
@@ -3607,19 +3635,23 @@
       <c r="C18" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="15">
+        <v>192</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1.5934999999999999</v>
+      </c>
       <c r="F18" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.794545454545454</v>
       </c>
       <c r="G18" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>305.952</v>
       </c>
       <c r="H18" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="I18" s="24">
         <f t="shared" si="9"/>
@@ -3631,20 +3663,20 @@
       </c>
       <c r="K18" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="L18" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>305.952</v>
       </c>
       <c r="M18" s="20"/>
       <c r="N18" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="O18" s="55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="P18" s="17">
         <v>0</v>
@@ -3703,19 +3735,23 @@
       <c r="C19" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="15">
+        <v>36</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1.428666666</v>
+      </c>
       <c r="F19" s="51">
         <f t="shared" ref="F19:F21" si="114">E19/C19</f>
-        <v>0</v>
+        <v>5.1951515127272723</v>
       </c>
       <c r="G19" s="52">
         <f t="shared" ref="G19:G21" si="115">E19*D19</f>
-        <v>0</v>
+        <v>51.431999976</v>
       </c>
       <c r="H19" s="50">
         <f t="shared" ref="H19:H21" si="116">C19*D19</f>
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="I19" s="24">
         <f t="shared" si="9"/>
@@ -3727,20 +3763,20 @@
       </c>
       <c r="K19" s="54">
         <f t="shared" ref="K19:K21" si="118">D19-I19</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L19" s="124">
         <f t="shared" ref="L19:L33" si="119">K19*E19</f>
-        <v>0</v>
+        <v>51.431999976</v>
       </c>
       <c r="M19" s="20"/>
       <c r="N19" s="55">
         <f t="shared" ref="N19:N21" si="120">P19+D19</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O19" s="55">
         <f t="shared" ref="O19:O35" si="121">N19-M19</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="P19" s="17">
         <v>0</v>
@@ -3799,19 +3835,23 @@
       <c r="C20" s="57">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="15">
+        <v>48</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1.4584999999999999</v>
+      </c>
       <c r="F20" s="51">
         <f t="shared" ref="F20" si="122">E20/C20</f>
-        <v>0</v>
+        <v>5.3036363636363628</v>
       </c>
       <c r="G20" s="52">
         <f t="shared" ref="G20" si="123">E20*D20</f>
-        <v>0</v>
+        <v>70.007999999999996</v>
       </c>
       <c r="H20" s="50">
         <f t="shared" ref="H20" si="124">C20*D20</f>
-        <v>0</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" ref="I20" si="125">IF(O20&gt;P20,D20-O20+P20,D20)</f>
@@ -3823,20 +3863,20 @@
       </c>
       <c r="K20" s="54">
         <f t="shared" ref="K20" si="127">D20-I20</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L20" s="124">
         <f t="shared" ref="L20:L32" si="128">K20*E20</f>
-        <v>0</v>
+        <v>70.007999999999996</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="55">
         <f t="shared" ref="N20" si="129">P20+D20</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O20" s="55">
         <f t="shared" ref="O20" si="130">N20-M20</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P20" s="17">
         <v>0</v>
@@ -3895,19 +3935,23 @@
       <c r="C21" s="57">
         <v>0.7</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="15">
+        <v>3</v>
+      </c>
+      <c r="E21" s="16">
+        <v>13.188000000000001</v>
+      </c>
       <c r="F21" s="51">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>18.840000000000003</v>
       </c>
       <c r="G21" s="52">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>39.564</v>
       </c>
       <c r="H21" s="50">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="I21" s="24">
         <f t="shared" si="9"/>
@@ -3919,20 +3963,20 @@
       </c>
       <c r="K21" s="54">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="124">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>39.564</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="55">
         <f t="shared" si="120"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O21" s="55">
         <f t="shared" si="121"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P21" s="17">
         <v>1</v>
@@ -4087,19 +4131,23 @@
       <c r="C23" s="57">
         <v>0.02</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="15">
+        <v>240</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.72</v>
+      </c>
       <c r="F23" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G23" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>172.79999999999998</v>
       </c>
       <c r="H23" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I23" s="24">
         <f t="shared" si="9"/>
@@ -4111,20 +4159,20 @@
       </c>
       <c r="K23" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="L23" s="124">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>172.79999999999998</v>
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="55">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="O23" s="55">
         <f t="shared" si="121"/>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="P23" s="17">
         <v>80</v>
@@ -4279,19 +4327,23 @@
       <c r="C25" s="57">
         <v>0.5</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
+        <v>16.8</v>
+      </c>
       <c r="F25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="G25" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="H25" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="9"/>
@@ -4303,20 +4355,20 @@
       </c>
       <c r="K25" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="124">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="55">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" s="55">
         <f t="shared" si="121"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="17">
         <v>1</v>
@@ -4375,19 +4427,23 @@
       <c r="C26" s="57">
         <v>2</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
+        <v>28.056000000000001</v>
+      </c>
       <c r="F26" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>14.028</v>
       </c>
       <c r="G26" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>28.056000000000001</v>
       </c>
       <c r="H26" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="24">
         <f t="shared" si="9"/>
@@ -4399,20 +4455,20 @@
       </c>
       <c r="K26" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="124">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>28.056000000000001</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="17">
         <v>0</v>
@@ -4471,19 +4527,23 @@
       <c r="C27" s="57">
         <v>0.5</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
+      <c r="D27" s="15">
+        <v>2</v>
+      </c>
+      <c r="E27" s="16">
+        <v>16.8</v>
+      </c>
       <c r="F27" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="G27" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="24">
         <f t="shared" si="9"/>
@@ -4495,20 +4555,20 @@
       </c>
       <c r="K27" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" s="124">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M27" s="20"/>
       <c r="N27" s="55">
         <f t="shared" si="13"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="O27" s="55">
         <f t="shared" si="121"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="P27" s="17">
         <v>0.75</v>
@@ -4567,19 +4627,23 @@
       <c r="C28" s="57">
         <v>0.5</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+      <c r="E28" s="16">
+        <v>16.8</v>
+      </c>
       <c r="F28" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="G28" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="H28" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I28" s="24">
         <f t="shared" si="9"/>
@@ -4591,20 +4655,20 @@
       </c>
       <c r="K28" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="124">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="55">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="55">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="17">
         <v>1</v>
@@ -4663,19 +4727,23 @@
       <c r="C29" s="57">
         <v>0.5</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="15">
+        <v>2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>16.8</v>
+      </c>
       <c r="F29" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="G29" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="H29" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="9"/>
@@ -4687,20 +4755,20 @@
       </c>
       <c r="K29" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="124">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="55">
         <f t="shared" si="13"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="O29" s="55">
         <f t="shared" si="121"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="P29" s="17">
         <v>0.75</v>
@@ -4855,19 +4923,23 @@
       <c r="C31" s="57">
         <v>0.75</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="15">
+        <v>7</v>
+      </c>
+      <c r="E31" s="16">
+        <v>3.7731428</v>
+      </c>
       <c r="F31" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.030857066666667</v>
       </c>
       <c r="G31" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>26.411999600000001</v>
       </c>
       <c r="H31" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I31" s="24">
         <f t="shared" si="9"/>
@@ -4879,20 +4951,20 @@
       </c>
       <c r="K31" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L31" s="124">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>26.411999600000001</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="55">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O31" s="55">
         <f t="shared" si="121"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P31" s="17">
         <v>5</v>
@@ -4951,19 +5023,23 @@
       <c r="C32" s="57">
         <v>0.7</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="15">
+        <v>3</v>
+      </c>
+      <c r="E32" s="16">
+        <v>11.988</v>
+      </c>
       <c r="F32" s="51">
         <f t="shared" ref="F32" si="144">E32/C32</f>
-        <v>0</v>
+        <v>17.125714285714285</v>
       </c>
       <c r="G32" s="52">
         <f t="shared" ref="G32" si="145">E32*D32</f>
-        <v>0</v>
+        <v>35.963999999999999</v>
       </c>
       <c r="H32" s="50">
         <f t="shared" ref="H32" si="146">C32*D32</f>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="I32" s="24">
         <f t="shared" si="9"/>
@@ -4975,20 +5051,20 @@
       </c>
       <c r="K32" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="124">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>35.963999999999999</v>
       </c>
       <c r="M32" s="20"/>
       <c r="N32" s="55">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O32" s="55">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P32" s="17">
         <v>1</v>
@@ -5527,19 +5603,23 @@
       <c r="C38" s="57">
         <v>0.02</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
+      <c r="D38" s="15">
+        <v>120</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.67200000000000004</v>
+      </c>
       <c r="F38" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="G38" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>80.64</v>
       </c>
       <c r="H38" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I38" s="24">
         <f t="shared" si="9"/>
@@ -5551,20 +5631,20 @@
       </c>
       <c r="K38" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L38" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>80.64</v>
       </c>
       <c r="M38" s="20"/>
       <c r="N38" s="55">
         <f t="shared" si="13"/>
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="O38" s="55">
         <f t="shared" si="14"/>
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="P38" s="17">
         <v>45</v>
@@ -5815,19 +5895,23 @@
       <c r="C41" s="57">
         <v>0.75</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="16">
+        <v>6.2590000000000003</v>
+      </c>
       <c r="F41" s="51">
         <f>E41/C41</f>
-        <v>0</v>
+        <v>8.3453333333333344</v>
       </c>
       <c r="G41" s="52">
         <f>E41*D41</f>
-        <v>0</v>
+        <v>6.2590000000000003</v>
       </c>
       <c r="H41" s="50">
         <f>C41*D41</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I41" s="24">
         <f>IF(O41&gt;P41,D41-O41+P41,D41)</f>
@@ -5839,20 +5923,20 @@
       </c>
       <c r="K41" s="54">
         <f>D41-I41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="124">
         <f>K41*E41</f>
-        <v>0</v>
+        <v>6.2590000000000003</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="55">
         <f>P41+D41</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" s="55">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P41" s="17">
         <v>2</v>
@@ -5911,19 +5995,23 @@
       <c r="C42" s="57">
         <v>0.7</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
+      <c r="D42" s="15">
+        <v>7</v>
+      </c>
+      <c r="E42" s="16">
+        <v>7.0289999999999999</v>
+      </c>
       <c r="F42" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.041428571428572</v>
       </c>
       <c r="G42" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>49.203000000000003</v>
       </c>
       <c r="H42" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="I42" s="24">
         <f t="shared" si="9"/>
@@ -5935,20 +6023,20 @@
       </c>
       <c r="K42" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L42" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>49.203000000000003</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="55">
         <f t="shared" si="13"/>
-        <v>1.75</v>
+        <v>8.75</v>
       </c>
       <c r="O42" s="55">
         <f t="shared" si="14"/>
-        <v>1.75</v>
+        <v>8.75</v>
       </c>
       <c r="P42" s="17">
         <v>1.75</v>
@@ -6007,19 +6095,23 @@
       <c r="C43" s="57">
         <v>0.7</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="15">
+        <v>3</v>
+      </c>
+      <c r="E43" s="16">
+        <v>10.788</v>
+      </c>
       <c r="F43" s="51">
         <f>E43/C43</f>
-        <v>0</v>
+        <v>15.411428571428573</v>
       </c>
       <c r="G43" s="52">
         <f>E43*D43</f>
-        <v>0</v>
+        <v>32.364000000000004</v>
       </c>
       <c r="H43" s="50">
         <f>C43*D43</f>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="I43" s="24">
         <f>IF(O43&gt;P43,D43-O43+P43,D43)</f>
@@ -6031,20 +6123,20 @@
       </c>
       <c r="K43" s="54">
         <f>D43-I43</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43" s="124">
         <f>K43*E43</f>
-        <v>0</v>
+        <v>32.364000000000004</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="55">
         <f>P43+D43</f>
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="O43" s="55">
         <f t="shared" ref="O43:O51" si="227">N43-M43</f>
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="P43" s="17">
         <v>0.75</v>
@@ -6295,19 +6387,23 @@
       <c r="C46" s="57">
         <v>0.5</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
+      <c r="D46" s="15">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16">
+        <v>4.6680000000000001</v>
+      </c>
       <c r="F46" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.3360000000000003</v>
       </c>
       <c r="G46" s="52">
         <f t="shared" ref="G46" si="239">E46*D46</f>
-        <v>0</v>
+        <v>4.6680000000000001</v>
       </c>
       <c r="H46" s="50">
         <f t="shared" ref="H46" si="240">C46*D46</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" ref="I46" si="241">IF(O46&gt;P46,D46-O46+P46,D46)</f>
@@ -6319,20 +6415,20 @@
       </c>
       <c r="K46" s="54">
         <f t="shared" ref="K46" si="243">D46-I46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="124">
         <f t="shared" ref="L46" si="244">K46*E46</f>
-        <v>0</v>
+        <v>4.6680000000000001</v>
       </c>
       <c r="M46" s="20"/>
       <c r="N46" s="55">
         <f t="shared" ref="N46" si="245">P46+D46</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O46" s="55">
         <f t="shared" ref="O46" si="246">N46-M46</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P46" s="17">
         <v>4</v>
@@ -6391,19 +6487,23 @@
       <c r="C47" s="57">
         <v>0.7</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
+      <c r="D47" s="15">
+        <v>2</v>
+      </c>
+      <c r="E47" s="16">
+        <v>7.2489999999999997</v>
+      </c>
       <c r="F47" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.355714285714287</v>
       </c>
       <c r="G47" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14.497999999999999</v>
       </c>
       <c r="H47" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I47" s="24">
         <f t="shared" si="9"/>
@@ -6415,20 +6515,20 @@
       </c>
       <c r="K47" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14.497999999999999</v>
       </c>
       <c r="M47" s="20"/>
       <c r="N47" s="55">
         <f t="shared" si="238"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O47" s="55">
         <f t="shared" si="227"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="P47" s="17">
         <v>0.5</v>
@@ -6583,19 +6683,23 @@
       <c r="C49" s="57">
         <v>0.75</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="16"/>
+      <c r="D49" s="15">
+        <v>6</v>
+      </c>
+      <c r="E49" s="16">
+        <v>1.1879999999999999</v>
+      </c>
       <c r="F49" s="51">
         <f t="shared" ref="F49" si="265">E49/C49</f>
-        <v>0</v>
+        <v>1.5839999999999999</v>
       </c>
       <c r="G49" s="52">
         <f t="shared" ref="G49" si="266">E49*D49</f>
-        <v>0</v>
+        <v>7.1280000000000001</v>
       </c>
       <c r="H49" s="50">
         <f t="shared" ref="H49" si="267">C49*D49</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I49" s="24">
         <f t="shared" ref="I49" si="268">IF(O49&gt;P49,D49-O49+P49,D49)</f>
@@ -6607,20 +6711,20 @@
       </c>
       <c r="K49" s="54">
         <f t="shared" ref="K49" si="270">D49-I49</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L49" s="124">
         <f t="shared" ref="L49" si="271">K49*E49</f>
-        <v>0</v>
+        <v>7.1280000000000001</v>
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="55">
         <f t="shared" ref="N49" si="272">P49+D49</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O49" s="55">
         <f t="shared" ref="O49" si="273">N49-M49</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P49" s="17">
         <v>0</v>
@@ -6775,19 +6879,23 @@
       <c r="C51" s="57">
         <v>1.5</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
+      <c r="D51" s="15">
+        <v>30</v>
+      </c>
+      <c r="E51" s="16">
+        <v>1.98</v>
+      </c>
       <c r="F51" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="G51" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="H51" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I51" s="24">
         <f t="shared" si="9"/>
@@ -6799,20 +6907,20 @@
       </c>
       <c r="K51" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L51" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="M51" s="20"/>
       <c r="N51" s="55">
         <f t="shared" si="238"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="O51" s="55">
         <f t="shared" si="227"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="P51" s="17">
         <v>15</v>
@@ -8119,19 +8227,23 @@
       <c r="C65" s="57">
         <v>1</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="16"/>
+      <c r="D65" s="15">
+        <v>2</v>
+      </c>
+      <c r="E65" s="16">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="F65" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G65" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H65" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" s="24">
         <f t="shared" si="9"/>
@@ -8143,20 +8255,20 @@
       </c>
       <c r="K65" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="M65" s="20"/>
       <c r="N65" s="55">
         <f t="shared" si="303"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65" s="55">
         <f t="shared" si="304"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65" s="17">
         <v>1</v>
@@ -8215,19 +8327,23 @@
       <c r="C66" s="57">
         <v>1</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="16"/>
+      <c r="D66" s="15">
+        <v>30</v>
+      </c>
+      <c r="E66" s="16">
+        <v>1.764</v>
+      </c>
       <c r="F66" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="G66" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>52.92</v>
       </c>
       <c r="H66" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I66" s="24">
         <f t="shared" si="9"/>
@@ -8239,20 +8355,20 @@
       </c>
       <c r="K66" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L66" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>52.92</v>
       </c>
       <c r="M66" s="20"/>
       <c r="N66" s="55">
         <f t="shared" si="303"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O66" s="55">
         <f t="shared" si="304"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P66" s="17">
         <v>0</v>
@@ -8311,19 +8427,23 @@
       <c r="C67" s="57">
         <v>1.25</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="16"/>
+      <c r="D67" s="15">
+        <v>6</v>
+      </c>
+      <c r="E67" s="16">
+        <v>1.6439999999999999</v>
+      </c>
       <c r="F67" s="51">
         <f t="shared" ref="F67:F76" si="371">E67/C67</f>
-        <v>0</v>
+        <v>1.3151999999999999</v>
       </c>
       <c r="G67" s="52">
         <f t="shared" ref="G67:G76" si="372">E67*D67</f>
-        <v>0</v>
+        <v>9.863999999999999</v>
       </c>
       <c r="H67" s="50">
         <f t="shared" ref="H67:H76" si="373">C67*D67</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I67" s="24">
         <f t="shared" si="9"/>
@@ -8335,20 +8455,20 @@
       </c>
       <c r="K67" s="54">
         <f t="shared" ref="K67:K76" si="375">D67-I67</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L67" s="124">
         <f t="shared" ref="L67:L76" si="376">K67*E67</f>
-        <v>0</v>
+        <v>9.863999999999999</v>
       </c>
       <c r="M67" s="20"/>
       <c r="N67" s="55">
         <f t="shared" ref="N67:N76" si="377">P67+D67</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O67" s="55">
         <f t="shared" ref="O67:O76" si="378">N67-M67</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P67" s="17">
         <v>0</v>
@@ -9366,7 +9486,7 @@
       <c r="F78" s="51"/>
       <c r="G78" s="60">
         <f>SUM(G3:G77)</f>
-        <v>0</v>
+        <v>2009.757996176</v>
       </c>
       <c r="H78" s="50"/>
       <c r="I78" s="61"/>
@@ -9377,7 +9497,7 @@
       <c r="K78" s="63"/>
       <c r="L78" s="64">
         <f>SUM(L3:L77)</f>
-        <v>0</v>
+        <v>2009.757996176</v>
       </c>
       <c r="M78" s="65"/>
       <c r="N78" s="66"/>
@@ -9554,7 +9674,7 @@
       </c>
       <c r="L84" s="74">
         <f>L78+U78</f>
-        <v>911.22285187815123</v>
+        <v>2920.9808480541515</v>
       </c>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
@@ -9684,7 +9804,7 @@
       </c>
       <c r="K89" s="80">
         <f>ROUND(+G78,2)</f>
-        <v>0</v>
+        <v>2009.76</v>
       </c>
       <c r="L89" s="32"/>
       <c r="M89" s="32"/>
@@ -9708,7 +9828,7 @@
       </c>
       <c r="K90" s="82">
         <f>ROUND(-L84,2)</f>
-        <v>-911.22</v>
+        <v>-2920.98</v>
       </c>
       <c r="L90" s="32"/>
       <c r="M90" s="32"/>
@@ -10195,11 +10315,11 @@
       </c>
       <c r="C6" s="97">
         <f>'Festkosten-Depotwert'!G78</f>
-        <v>0</v>
+        <v>2009.757996176</v>
       </c>
       <c r="D6" s="98">
         <f>'Festkosten-Depotwert'!L84</f>
-        <v>911.22285187815123</v>
+        <v>2920.9808480541515</v>
       </c>
       <c r="E6" s="99">
         <f>'Festkosten-Depotwert'!K84</f>
@@ -10226,7 +10346,7 @@
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="103">
         <f>-(D6-C6)</f>
-        <v>-911.22285187815123</v>
+        <v>-911.22285187815146</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -10268,11 +10388,11 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="106">
         <f>C6</f>
-        <v>0</v>
+        <v>2009.757996176</v>
       </c>
       <c r="C20" s="98">
         <f>'Festkosten-Depotwert'!L78</f>
-        <v>0</v>
+        <v>2009.757996176</v>
       </c>
       <c r="D20" s="107">
         <f>B20-C20</f>
@@ -10332,7 +10452,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10389,15 +10509,15 @@
       </c>
       <c r="E2" s="116">
         <f>'Festkosten-Depotwert'!P3+'Festkosten-Depotwert'!D3</f>
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="F2" s="117">
         <f t="shared" ref="F2:F65" si="0">IF(E2&lt;D2,ROUNDUP(D2-E2,0),0)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G2" s="118">
         <f>F2*C2</f>
-        <v>8.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="H2" s="49">
         <f>D2*C2</f>
@@ -10449,15 +10569,15 @@
       </c>
       <c r="E4" s="116">
         <f>'Festkosten-Depotwert'!P5+'Festkosten-Depotwert'!D5</f>
-        <v>4.75</v>
+        <v>17.75</v>
       </c>
       <c r="F4" s="117">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G4" s="119">
         <f t="shared" ref="G4:G76" si="1">F4*C4</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H4" s="49">
         <f t="shared" ref="H4:H76" si="2">D4*C4</f>
@@ -10538,15 +10658,15 @@
       </c>
       <c r="E7" s="116">
         <f>'Festkosten-Depotwert'!P8+'Festkosten-Depotwert'!D8</f>
-        <v>4.75</v>
+        <v>25.75</v>
       </c>
       <c r="F7" s="117">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G7" s="118">
         <f t="shared" si="1"/>
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="H7" s="49">
         <f t="shared" si="2"/>
@@ -10569,15 +10689,15 @@
       </c>
       <c r="E8" s="116">
         <f>'Festkosten-Depotwert'!P9+'Festkosten-Depotwert'!D9</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="F8" s="117">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="119">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="49">
         <f t="shared" si="2"/>
@@ -10631,15 +10751,15 @@
       </c>
       <c r="E10" s="116">
         <f>'Festkosten-Depotwert'!P11+'Festkosten-Depotwert'!D11</f>
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="F10" s="117">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G10" s="119">
         <f t="shared" si="1"/>
-        <v>7.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="H10" s="49">
         <f t="shared" si="2"/>
@@ -10691,15 +10811,15 @@
       </c>
       <c r="E12" s="116">
         <f>'Festkosten-Depotwert'!P13+'Festkosten-Depotwert'!D13</f>
-        <v>12.75</v>
+        <v>25.75</v>
       </c>
       <c r="F12" s="117">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G12" s="119">
         <f>F12*C12</f>
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="49">
         <f t="shared" si="2"/>
@@ -10780,15 +10900,15 @@
       </c>
       <c r="E15" s="116">
         <f>'Festkosten-Depotwert'!P16+'Festkosten-Depotwert'!D16</f>
-        <v>3.75</v>
+        <v>6.75</v>
       </c>
       <c r="F15" s="117">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="119">
         <f t="shared" si="1"/>
-        <v>2.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H15" s="49">
         <f t="shared" si="2"/>
@@ -10842,15 +10962,15 @@
       </c>
       <c r="E17" s="116">
         <f>'Festkosten-Depotwert'!P18+'Festkosten-Depotwert'!D18</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F17" s="117">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G17" s="119">
         <f t="shared" si="1"/>
-        <v>52.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="H17" s="49">
         <f t="shared" si="2"/>
@@ -10873,15 +10993,15 @@
       </c>
       <c r="E18" s="116">
         <f>'Festkosten-Depotwert'!P19+'Festkosten-Depotwert'!D19</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F18" s="117">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G18" s="119">
         <f t="shared" si="1"/>
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="H18" s="49">
         <f t="shared" si="2"/>
@@ -10904,15 +11024,15 @@
       </c>
       <c r="E19" s="116">
         <f>'Festkosten-Depotwert'!P20+'Festkosten-Depotwert'!D20</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F19" s="117">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G19" s="119">
         <f t="shared" si="1"/>
-        <v>13.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="H19" s="49">
         <f t="shared" si="2"/>
@@ -10935,15 +11055,15 @@
       </c>
       <c r="E20" s="116">
         <f>'Festkosten-Depotwert'!P21+'Festkosten-Depotwert'!D21</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="117">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="118">
         <f t="shared" si="1"/>
-        <v>2.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H20" s="49">
         <f t="shared" si="2"/>
@@ -10995,15 +11115,15 @@
       </c>
       <c r="E22" s="116">
         <f>'Festkosten-Depotwert'!P23+'Festkosten-Depotwert'!D23</f>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="F22" s="117">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G22" s="118">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H22" s="49">
         <f t="shared" si="2"/>
@@ -11041,10 +11161,10 @@
       <c r="M23" s="120"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="138" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="50">
@@ -11055,15 +11175,15 @@
       </c>
       <c r="E24" s="116">
         <f>'Festkosten-Depotwert'!P25+'Festkosten-Depotwert'!D25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="117">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="119">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="49">
         <f t="shared" si="2"/>
@@ -11086,15 +11206,15 @@
       </c>
       <c r="E25" s="116">
         <f>'Festkosten-Depotwert'!P26+'Festkosten-Depotwert'!D26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="117">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="119">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="49">
         <f t="shared" si="2"/>
@@ -11103,10 +11223,10 @@
       <c r="M25" s="120"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="138" t="s">
         <v>139</v>
       </c>
       <c r="C26" s="50">
@@ -11117,15 +11237,15 @@
       </c>
       <c r="E26" s="116">
         <f>'Festkosten-Depotwert'!P27+'Festkosten-Depotwert'!D27</f>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="F26" s="117">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="118">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="49">
         <f t="shared" si="2"/>
@@ -11134,10 +11254,10 @@
       <c r="M26" s="120"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="139" t="s">
+      <c r="A27" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="139" t="s">
+      <c r="B27" s="138" t="s">
         <v>140</v>
       </c>
       <c r="C27" s="50">
@@ -11148,15 +11268,15 @@
       </c>
       <c r="E27" s="116">
         <f>'Festkosten-Depotwert'!P28+'Festkosten-Depotwert'!D28</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="117">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="119">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H27" s="49">
         <f t="shared" si="2"/>
@@ -11165,10 +11285,10 @@
       <c r="M27" s="120"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="138" t="s">
         <v>141</v>
       </c>
       <c r="C28" s="50">
@@ -11179,15 +11299,15 @@
       </c>
       <c r="E28" s="116">
         <f>'Festkosten-Depotwert'!P29+'Festkosten-Depotwert'!D29</f>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="F28" s="117">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="118">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="49">
         <f t="shared" si="2"/>
@@ -11239,15 +11359,15 @@
       </c>
       <c r="E30" s="116">
         <f>'Festkosten-Depotwert'!P31+'Festkosten-Depotwert'!D31</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F30" s="117">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G30" s="119">
         <f t="shared" si="1"/>
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="H30" s="49">
         <f t="shared" si="2"/>
@@ -11270,15 +11390,15 @@
       </c>
       <c r="E31" s="116">
         <f>'Festkosten-Depotwert'!P32+'Festkosten-Depotwert'!D32</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="117">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="119">
         <f t="shared" si="1"/>
-        <v>2.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H31" s="49">
         <f t="shared" si="2"/>
@@ -11448,15 +11568,15 @@
       </c>
       <c r="E37" s="116">
         <f>'Festkosten-Depotwert'!P38+'Festkosten-Depotwert'!D38</f>
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="F37" s="117">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G37" s="119">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="49">
         <f t="shared" si="2"/>
@@ -11541,15 +11661,15 @@
       </c>
       <c r="E40" s="116">
         <f>'Festkosten-Depotwert'!P41+'Festkosten-Depotwert'!D41</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="117">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="119">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H40" s="49">
         <f t="shared" si="2"/>
@@ -11572,15 +11692,15 @@
       </c>
       <c r="E41" s="116">
         <f>'Festkosten-Depotwert'!P42+'Festkosten-Depotwert'!D42</f>
-        <v>1.75</v>
+        <v>8.75</v>
       </c>
       <c r="F41" s="117">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G41" s="119">
         <f t="shared" si="1"/>
-        <v>4.8999999999999995</v>
+        <v>0</v>
       </c>
       <c r="H41" s="49">
         <f t="shared" si="2"/>
@@ -11603,15 +11723,15 @@
       </c>
       <c r="E42" s="116">
         <f>'Festkosten-Depotwert'!P43+'Festkosten-Depotwert'!D43</f>
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="F42" s="117">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="118">
         <f t="shared" si="1"/>
-        <v>2.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H42" s="49">
         <f t="shared" si="2"/>
@@ -11694,15 +11814,15 @@
       </c>
       <c r="E45" s="116">
         <f>'Festkosten-Depotwert'!P46+'Festkosten-Depotwert'!D46</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="117">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="119">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H45" s="49">
         <f t="shared" si="2"/>
@@ -11725,15 +11845,15 @@
       </c>
       <c r="E46" s="116">
         <f>'Festkosten-Depotwert'!P47+'Festkosten-Depotwert'!D47</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F46" s="117">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="119">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H46" s="49">
         <f t="shared" si="2"/>
@@ -11785,15 +11905,15 @@
       </c>
       <c r="E48" s="116">
         <f>'Festkosten-Depotwert'!P49+'Festkosten-Depotwert'!D49</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48" s="117">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G48" s="119">
         <f t="shared" ref="G48" si="11">F48*C48</f>
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H48" s="49">
         <f t="shared" ref="H48" si="12">D48*C48</f>
@@ -11845,15 +11965,15 @@
       </c>
       <c r="E50" s="116">
         <f>'Festkosten-Depotwert'!P51+'Festkosten-Depotwert'!D51</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F50" s="117">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G50" s="118">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="H50" s="49">
         <f t="shared" si="2"/>
@@ -11991,7 +12111,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="15">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E55" s="116">
         <f>'Festkosten-Depotwert'!P56+'Festkosten-Depotwert'!D56</f>
@@ -11999,15 +12119,15 @@
       </c>
       <c r="F55" s="117">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="G55" s="119">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="H55" s="49">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="I55" s="125"/>
       <c r="M55" s="120"/>
@@ -12270,15 +12390,15 @@
       </c>
       <c r="E64" s="116">
         <f>'Festkosten-Depotwert'!P65+'Festkosten-Depotwert'!D65</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="117">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" s="119">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" s="49">
         <f t="shared" si="2"/>
@@ -12301,15 +12421,15 @@
       </c>
       <c r="E65" s="116">
         <f>'Festkosten-Depotwert'!P66+'Festkosten-Depotwert'!D66</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F65" s="117">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G65" s="118">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H65" s="49">
         <f t="shared" si="2"/>
@@ -12332,15 +12452,15 @@
       </c>
       <c r="E66" s="116">
         <f>'Festkosten-Depotwert'!P67+'Festkosten-Depotwert'!D67</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F66" s="117">
         <f t="shared" ref="F66:F76" si="21">IF(E66&lt;D66,ROUNDUP(D66-E66,0),0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G66" s="119">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H66" s="49">
         <f t="shared" si="2"/>
@@ -12479,7 +12599,7 @@
         <v>50</v>
       </c>
       <c r="D71" s="15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E71" s="116">
         <f>'Festkosten-Depotwert'!P72+'Festkosten-Depotwert'!D72</f>
@@ -12487,15 +12607,15 @@
       </c>
       <c r="F71" s="117">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G71" s="119">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="H71" s="49">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M71" s="120"/>
     </row>
@@ -12657,7 +12777,7 @@
       <c r="M77" s="120"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="138"/>
+      <c r="A78" s="139"/>
       <c r="B78" s="137" t="s">
         <v>171</v>
       </c>

--- a/trunk/2015/Getränke/Getränkebestand Glarea Nox 2015.xlsx
+++ b/trunk/2015/Getränke/Getränkebestand Glarea Nox 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="225" windowWidth="15120" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Festkosten-Depotwert" sheetId="3" r:id="rId1"/>
@@ -2009,11 +2009,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2187,28 +2187,30 @@
       </c>
       <c r="I3" s="24">
         <f>IF(O3&gt;P3,D3-O3+P3,D3)</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J3" s="53">
         <f>I3*E3</f>
-        <v>0</v>
+        <v>58.082999999999998</v>
       </c>
       <c r="K3" s="54">
         <f t="shared" ref="K3" si="1">D3-I3</f>
-        <v>12</v>
+        <v>7.25</v>
       </c>
       <c r="L3" s="124">
         <f t="shared" ref="L3" si="2">K3*E3</f>
-        <v>146.73599999999999</v>
-      </c>
-      <c r="M3" s="20"/>
+        <v>88.652999999999992</v>
+      </c>
+      <c r="M3" s="20">
+        <v>4.75</v>
+      </c>
       <c r="N3" s="55">
         <f>P3+D3</f>
         <v>16.5</v>
       </c>
       <c r="O3" s="55">
         <f>N3-M3</f>
-        <v>16.5</v>
+        <v>11.75</v>
       </c>
       <c r="P3" s="17">
         <v>4.5</v>
@@ -2242,19 +2244,19 @@
       </c>
       <c r="Y3" s="25">
         <f>V3+I3</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Z3" s="26">
         <f>IF(ISERROR(((V3*Q3)+(I3*E3))/(I3+V3)),0,((V3*Q3)+(I3*E3))/(I3+V3))</f>
-        <v>0</v>
+        <v>12.228</v>
       </c>
       <c r="AA3" s="10">
         <f>Y3*C3</f>
-        <v>0</v>
+        <v>3.3249999999999997</v>
       </c>
       <c r="AB3" s="19">
         <f>Y3*Z3</f>
-        <v>0</v>
+        <v>58.082999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -2383,28 +2385,30 @@
       </c>
       <c r="I5" s="24">
         <f t="shared" ref="I5:I77" si="9">IF(O5&gt;P5,D5-O5+P5,D5)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" ref="J5:J66" si="10">I5*E5</f>
-        <v>0</v>
+        <v>36.588461000000002</v>
       </c>
       <c r="K5" s="54">
         <f t="shared" ref="K5:K66" si="11">D5-I5</f>
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="L5" s="124">
         <f t="shared" ref="L5:L66" si="12">K5*E5</f>
-        <v>135.89999800000001</v>
-      </c>
-      <c r="M5" s="20"/>
+        <v>99.311537000000001</v>
+      </c>
+      <c r="M5" s="20">
+        <v>3.5</v>
+      </c>
       <c r="N5" s="55">
         <f t="shared" ref="N5:N42" si="13">P5+D5</f>
         <v>17.75</v>
       </c>
       <c r="O5" s="55">
         <f t="shared" ref="O5:O42" si="14">N5-M5</f>
-        <v>17.75</v>
+        <v>14.25</v>
       </c>
       <c r="P5" s="17">
         <v>4.75</v>
@@ -2438,19 +2442,19 @@
       </c>
       <c r="Y5" s="25">
         <f t="shared" ref="Y5:Y77" si="21">V5+I5</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z5" s="26">
         <f t="shared" ref="Z5:Z77" si="22">IF(ISERROR(((V5*Q5)+(I5*E5))/(I5+V5)),0,((V5*Q5)+(I5*E5))/(I5+V5))</f>
-        <v>0</v>
+        <v>10.453846</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ref="AA5:AA77" si="23">Y5*C5</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AB5" s="19">
         <f t="shared" ref="AB5:AB77" si="24">Y5*Z5</f>
-        <v>0</v>
+        <v>36.588461000000002</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -2675,28 +2679,30 @@
       </c>
       <c r="I8" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>11.7366666</v>
       </c>
       <c r="K8" s="54">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="124">
         <f>K8*E8</f>
-        <v>246.4699986</v>
-      </c>
-      <c r="M8" s="20"/>
+        <v>234.73333199999999</v>
+      </c>
+      <c r="M8" s="20">
+        <v>1</v>
+      </c>
       <c r="N8" s="55">
         <f t="shared" si="13"/>
         <v>25.75</v>
       </c>
       <c r="O8" s="55">
         <f t="shared" si="14"/>
-        <v>25.75</v>
+        <v>24.75</v>
       </c>
       <c r="P8" s="17">
         <v>4.75</v>
@@ -2730,19 +2736,19 @@
       </c>
       <c r="Y8" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>11.7366666</v>
       </c>
       <c r="AA8" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AB8" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>11.7366666</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -2775,28 +2781,30 @@
       </c>
       <c r="I9" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28.776</v>
       </c>
       <c r="K9" s="54">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="124">
         <f t="shared" si="12"/>
-        <v>28.776</v>
-      </c>
-      <c r="M9" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>5.5</v>
+      </c>
       <c r="N9" s="55">
         <f t="shared" si="13"/>
         <v>7.5</v>
       </c>
       <c r="O9" s="55">
         <f t="shared" si="14"/>
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="P9" s="17">
         <v>5.5</v>
@@ -2814,35 +2822,35 @@
       </c>
       <c r="T9" s="57">
         <f t="shared" si="17"/>
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="U9" s="58">
         <f t="shared" si="18"/>
-        <v>57.636857142857146</v>
+        <v>20.958857142857145</v>
       </c>
       <c r="V9" s="24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W9" s="50">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>36.678000000000004</v>
       </c>
       <c r="Y9" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>11.900727272727273</v>
       </c>
       <c r="AA9" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3.8499999999999996</v>
       </c>
       <c r="AB9" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>65.454000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -2885,14 +2893,16 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M10" s="20"/>
+      <c r="M10" s="20">
+        <v>2</v>
+      </c>
       <c r="N10" s="55">
         <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="O10" s="55">
         <f t="shared" si="14"/>
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P10" s="17">
         <v>6.5</v>
@@ -2910,35 +2920,35 @@
       </c>
       <c r="T10" s="57">
         <f t="shared" si="17"/>
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="U10" s="58">
         <f t="shared" si="18"/>
-        <v>80.316249999999997</v>
+        <v>55.603557692307689</v>
       </c>
       <c r="V10" s="24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10" s="50">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>24.712692307692308</v>
       </c>
       <c r="Y10" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>12.356346153846154</v>
       </c>
       <c r="AA10" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AB10" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>24.712692307692308</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -2971,28 +2981,30 @@
       </c>
       <c r="I11" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>103.776</v>
       </c>
       <c r="K11" s="54">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L11" s="124">
         <f t="shared" si="12"/>
-        <v>155.66399999999999</v>
-      </c>
-      <c r="M11" s="20"/>
+        <v>51.887999999999998</v>
+      </c>
+      <c r="M11" s="20">
+        <v>8</v>
+      </c>
       <c r="N11" s="55">
         <f t="shared" si="13"/>
         <v>16.5</v>
       </c>
       <c r="O11" s="55">
         <f t="shared" si="14"/>
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="P11" s="17">
         <v>4.5</v>
@@ -3026,19 +3038,19 @@
       </c>
       <c r="Y11" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z11" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>12.972</v>
       </c>
       <c r="AA11" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AB11" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>103.776</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -3167,28 +3179,30 @@
       </c>
       <c r="I13" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>26.97</v>
       </c>
       <c r="K13" s="54">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L13" s="124">
         <f t="shared" si="12"/>
-        <v>116.87</v>
-      </c>
-      <c r="M13" s="20"/>
+        <v>89.9</v>
+      </c>
+      <c r="M13" s="20">
+        <v>3</v>
+      </c>
       <c r="N13" s="55">
         <f t="shared" si="13"/>
         <v>25.75</v>
       </c>
       <c r="O13" s="55">
         <f t="shared" si="14"/>
-        <v>25.75</v>
+        <v>22.75</v>
       </c>
       <c r="P13" s="17">
         <v>12.75</v>
@@ -3222,19 +3236,19 @@
       </c>
       <c r="Y13" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>8.99</v>
       </c>
       <c r="AA13" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="AB13" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -3459,28 +3473,30 @@
       </c>
       <c r="I16" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>26.97</v>
       </c>
       <c r="K16" s="54">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="124">
         <f t="shared" si="12"/>
-        <v>26.97</v>
-      </c>
-      <c r="M16" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <v>5</v>
+      </c>
       <c r="N16" s="55">
         <f t="shared" si="13"/>
         <v>6.75</v>
       </c>
       <c r="O16" s="55">
         <f t="shared" si="14"/>
-        <v>6.75</v>
+        <v>1.75</v>
       </c>
       <c r="P16" s="17">
         <v>3.75</v>
@@ -3498,35 +3514,35 @@
       </c>
       <c r="T16" s="57">
         <f t="shared" si="17"/>
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="U16" s="58">
         <f t="shared" si="18"/>
-        <v>37.462588235294113</v>
+        <v>17.482541176470587</v>
       </c>
       <c r="V16" s="24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W16" s="50">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>19.980047058823526</v>
       </c>
       <c r="Y16" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>9.390009411764705</v>
       </c>
       <c r="AA16" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AB16" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>46.950047058823529</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -3569,14 +3585,16 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M17" s="20"/>
+      <c r="M17" s="20">
+        <v>5.5</v>
+      </c>
       <c r="N17" s="55">
         <f t="shared" ref="N17" si="102">P17+D17</f>
         <v>5.5</v>
       </c>
       <c r="O17" s="55">
         <f t="shared" ref="O17" si="103">N17-M17</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="P17" s="17">
         <v>5.5</v>
@@ -3594,35 +3612,35 @@
       </c>
       <c r="T17" s="57">
         <f t="shared" ref="T17" si="106">P17-V17</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="U17" s="58">
         <f t="shared" ref="U17" si="107">T17*Q17</f>
-        <v>58.19</v>
+        <v>0</v>
       </c>
       <c r="V17" s="24">
         <f t="shared" ref="V17" si="108">IF(O17&lt;P17,P17-O17,0)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W17" s="50">
         <f t="shared" ref="W17" si="109">V17*Q17</f>
-        <v>0</v>
+        <v>58.19</v>
       </c>
       <c r="Y17" s="25">
         <f t="shared" ref="Y17" si="110">V17+I17</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Z17" s="26">
         <f t="shared" ref="Z17" si="111">IF(ISERROR(((V17*Q17)+(I17*E17))/(I17+V17)),0,((V17*Q17)+(I17*E17))/(I17+V17))</f>
-        <v>0</v>
+        <v>10.58</v>
       </c>
       <c r="AA17" s="10">
         <f t="shared" ref="AA17" si="112">Y17*C17</f>
-        <v>0</v>
+        <v>3.8499999999999996</v>
       </c>
       <c r="AB17" s="19">
         <f t="shared" ref="AB17" si="113">Y17*Z17</f>
-        <v>0</v>
+        <v>58.19</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3755,28 +3773,30 @@
       </c>
       <c r="I19" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" ref="J19:J21" si="117">I19*E19</f>
-        <v>0</v>
+        <v>18.572666657999999</v>
       </c>
       <c r="K19" s="54">
         <f t="shared" ref="K19:K21" si="118">D19-I19</f>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L19" s="124">
         <f t="shared" ref="L19:L33" si="119">K19*E19</f>
-        <v>51.431999976</v>
-      </c>
-      <c r="M19" s="20"/>
+        <v>32.859333317999997</v>
+      </c>
+      <c r="M19" s="20">
+        <v>13</v>
+      </c>
       <c r="N19" s="55">
         <f t="shared" ref="N19:N21" si="120">P19+D19</f>
         <v>36</v>
       </c>
       <c r="O19" s="55">
         <f t="shared" ref="O19:O35" si="121">N19-M19</f>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="P19" s="17">
         <v>0</v>
@@ -3810,19 +3830,19 @@
       </c>
       <c r="Y19" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z19" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.428666666</v>
       </c>
       <c r="AA19" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="AB19" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>18.572666657999999</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -3855,28 +3875,30 @@
       </c>
       <c r="I20" s="24">
         <f t="shared" ref="I20" si="125">IF(O20&gt;P20,D20-O20+P20,D20)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J20" s="53">
         <f t="shared" ref="J20" si="126">I20*E20</f>
-        <v>0</v>
+        <v>35.003999999999998</v>
       </c>
       <c r="K20" s="54">
         <f t="shared" ref="K20" si="127">D20-I20</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L20" s="124">
         <f t="shared" ref="L20:L32" si="128">K20*E20</f>
-        <v>70.007999999999996</v>
-      </c>
-      <c r="M20" s="20"/>
+        <v>35.003999999999998</v>
+      </c>
+      <c r="M20" s="20">
+        <v>24</v>
+      </c>
       <c r="N20" s="55">
         <f t="shared" ref="N20" si="129">P20+D20</f>
         <v>48</v>
       </c>
       <c r="O20" s="55">
         <f t="shared" ref="O20" si="130">N20-M20</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="P20" s="17">
         <v>0</v>
@@ -3910,19 +3932,19 @@
       </c>
       <c r="Y20" s="25">
         <f t="shared" ref="Y20" si="137">V20+I20</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z20" s="26">
         <f t="shared" ref="Z20" si="138">IF(ISERROR(((V20*Q20)+(I20*E20))/(I20+V20)),0,((V20*Q20)+(I20*E20))/(I20+V20))</f>
-        <v>0</v>
+        <v>1.4584999999999999</v>
       </c>
       <c r="AA20" s="10">
         <f t="shared" ref="AA20" si="139">Y20*C20</f>
-        <v>0</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="AB20" s="19">
         <f t="shared" ref="AB20" si="140">Y20*Z20</f>
-        <v>0</v>
+        <v>35.003999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -3955,28 +3977,30 @@
       </c>
       <c r="I21" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J21" s="53">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>32.97</v>
       </c>
       <c r="K21" s="54">
         <f t="shared" si="118"/>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L21" s="124">
         <f t="shared" si="119"/>
-        <v>39.564</v>
-      </c>
-      <c r="M21" s="20"/>
+        <v>6.5940000000000003</v>
+      </c>
+      <c r="M21" s="20">
+        <v>2.5</v>
+      </c>
       <c r="N21" s="55">
         <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="O21" s="55">
         <f t="shared" si="121"/>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="P21" s="17">
         <v>1</v>
@@ -4010,19 +4034,19 @@
       </c>
       <c r="Y21" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z21" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>13.187999999999999</v>
       </c>
       <c r="AA21" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB21" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>32.97</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -4151,28 +4175,30 @@
       </c>
       <c r="I23" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J23" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="K23" s="54">
         <f t="shared" si="11"/>
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="L23" s="124">
         <f t="shared" si="119"/>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="M23" s="20"/>
+        <v>129.6</v>
+      </c>
+      <c r="M23" s="20">
+        <v>60</v>
+      </c>
       <c r="N23" s="55">
         <f t="shared" si="13"/>
         <v>320</v>
       </c>
       <c r="O23" s="55">
         <f t="shared" si="121"/>
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="P23" s="17">
         <v>80</v>
@@ -4206,19 +4232,19 @@
       </c>
       <c r="Y23" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z23" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="AA23" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB23" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>43.199999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -4447,28 +4473,30 @@
       </c>
       <c r="I26" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J26" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>21.042000000000002</v>
       </c>
       <c r="K26" s="54">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L26" s="124">
         <f t="shared" si="128"/>
-        <v>28.056000000000001</v>
-      </c>
-      <c r="M26" s="20"/>
+        <v>7.0140000000000002</v>
+      </c>
+      <c r="M26" s="20">
+        <v>0.75</v>
+      </c>
       <c r="N26" s="55">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O26" s="55">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P26" s="17">
         <v>0</v>
@@ -4502,19 +4530,19 @@
       </c>
       <c r="Y26" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z26" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>28.056000000000001</v>
       </c>
       <c r="AA26" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB26" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>21.042000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -4547,28 +4575,30 @@
       </c>
       <c r="I27" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J27" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="K27" s="54">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L27" s="124">
         <f t="shared" si="119"/>
-        <v>33.6</v>
-      </c>
-      <c r="M27" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="M27" s="20">
+        <v>0.75</v>
+      </c>
       <c r="N27" s="55">
         <f t="shared" si="13"/>
         <v>2.75</v>
       </c>
       <c r="O27" s="55">
         <f t="shared" si="121"/>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P27" s="17">
         <v>0.75</v>
@@ -4602,19 +4632,19 @@
       </c>
       <c r="Y27" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z27" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="AA27" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AB27" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>12.600000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -4647,28 +4677,30 @@
       </c>
       <c r="I28" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="K28" s="54">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="124">
         <f t="shared" si="128"/>
-        <v>16.8</v>
-      </c>
-      <c r="M28" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
+        <v>2</v>
+      </c>
       <c r="N28" s="55">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="O28" s="55">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" s="17">
         <v>1</v>
@@ -4686,35 +4718,35 @@
       </c>
       <c r="T28" s="57">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="58">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V28" s="24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="50">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y28" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="AA28" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -4747,28 +4779,30 @@
       </c>
       <c r="I29" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J29" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="K29" s="54">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L29" s="124">
         <f t="shared" si="119"/>
-        <v>33.6</v>
-      </c>
-      <c r="M29" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="M29" s="20">
+        <v>0.75</v>
+      </c>
       <c r="N29" s="55">
         <f t="shared" si="13"/>
         <v>2.75</v>
       </c>
       <c r="O29" s="55">
         <f t="shared" si="121"/>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P29" s="17">
         <v>0.75</v>
@@ -4802,19 +4836,19 @@
       </c>
       <c r="Y29" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z29" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="AA29" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AB29" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>12.600000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -4943,28 +4977,30 @@
       </c>
       <c r="I31" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J31" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>26.411999600000001</v>
       </c>
       <c r="K31" s="54">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L31" s="124">
         <f t="shared" si="119"/>
-        <v>26.411999600000001</v>
-      </c>
-      <c r="M31" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="20">
+        <v>11</v>
+      </c>
       <c r="N31" s="55">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="O31" s="55">
         <f t="shared" si="121"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P31" s="17">
         <v>5</v>
@@ -4982,35 +5018,35 @@
       </c>
       <c r="T31" s="57">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U31" s="58">
         <f t="shared" si="18"/>
-        <v>17.95</v>
+        <v>3.59</v>
       </c>
       <c r="V31" s="24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W31" s="50">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14.36</v>
       </c>
       <c r="Y31" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z31" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3.7065454181818183</v>
       </c>
       <c r="AA31" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="AB31" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>40.771999600000001</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -5345,14 +5381,16 @@
         <f t="shared" ref="L35" si="152">K35*E35</f>
         <v>0</v>
       </c>
-      <c r="M35" s="20"/>
+      <c r="M35" s="20">
+        <v>3</v>
+      </c>
       <c r="N35" s="55">
         <f t="shared" ref="N35" si="153">P35+D35</f>
         <v>3.5</v>
       </c>
       <c r="O35" s="55">
         <f t="shared" si="121"/>
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="P35" s="17">
         <v>3.5</v>
@@ -5370,35 +5408,35 @@
       </c>
       <c r="T35" s="57">
         <f t="shared" ref="T35" si="156">P35-V35</f>
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="U35" s="58">
         <f t="shared" ref="U35" si="157">T35*Q35</f>
-        <v>50.367000000000004</v>
+        <v>7.1952857142857152</v>
       </c>
       <c r="V35" s="24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="50">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>43.171714285714287</v>
       </c>
       <c r="Y35" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z35" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>14.390571428571429</v>
       </c>
       <c r="AA35" s="10">
         <f t="shared" ref="AA35" si="158">Y35*C35</f>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="AB35" s="19">
         <f t="shared" ref="AB35" si="159">Y35*Z35</f>
-        <v>0</v>
+        <v>43.171714285714287</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
@@ -5441,14 +5479,16 @@
         <f t="shared" ref="L36" si="165">K36*E36</f>
         <v>0</v>
       </c>
-      <c r="M36" s="20"/>
+      <c r="M36" s="20">
+        <v>0.5</v>
+      </c>
       <c r="N36" s="55">
         <f t="shared" ref="N36" si="166">P36+D36</f>
         <v>0.5</v>
       </c>
       <c r="O36" s="55">
         <f t="shared" ref="O36" si="167">N36-M36</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P36" s="17">
         <v>0.5</v>
@@ -5466,35 +5506,35 @@
       </c>
       <c r="T36" s="57">
         <f t="shared" ref="T36" si="170">P36-V36</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U36" s="58">
         <f t="shared" ref="U36" si="171">T36*Q36</f>
-        <v>10.2775</v>
+        <v>0</v>
       </c>
       <c r="V36" s="24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W36" s="50">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>10.2775</v>
       </c>
       <c r="Y36" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z36" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>20.555</v>
       </c>
       <c r="AA36" s="10">
         <f t="shared" ref="AA36" si="172">Y36*C36</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB36" s="19">
         <f t="shared" ref="AB36" si="173">Y36*Z36</f>
-        <v>0</v>
+        <v>10.2775</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -5623,28 +5663,30 @@
       </c>
       <c r="I38" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J38" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40.32</v>
       </c>
       <c r="K38" s="54">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L38" s="124">
         <f t="shared" si="12"/>
-        <v>80.64</v>
-      </c>
-      <c r="M38" s="20"/>
+        <v>40.32</v>
+      </c>
+      <c r="M38" s="20">
+        <v>60</v>
+      </c>
       <c r="N38" s="55">
         <f t="shared" si="13"/>
         <v>165</v>
       </c>
       <c r="O38" s="55">
         <f t="shared" si="14"/>
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="P38" s="17">
         <v>45</v>
@@ -5678,19 +5720,19 @@
       </c>
       <c r="Y38" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z38" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="AA38" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB38" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -5915,28 +5957,30 @@
       </c>
       <c r="I41" s="24">
         <f>IF(O41&gt;P41,D41-O41+P41,D41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="53">
         <f>I41*E41</f>
-        <v>0</v>
+        <v>6.2590000000000003</v>
       </c>
       <c r="K41" s="54">
         <f>D41-I41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="124">
         <f>K41*E41</f>
-        <v>6.2590000000000003</v>
-      </c>
-      <c r="M41" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="20">
+        <v>1.5</v>
+      </c>
       <c r="N41" s="55">
         <f>P41+D41</f>
         <v>3</v>
       </c>
       <c r="O41" s="55">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P41" s="17">
         <v>2</v>
@@ -5954,35 +5998,35 @@
       </c>
       <c r="T41" s="57">
         <f t="shared" si="200"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U41" s="58">
         <f t="shared" si="201"/>
-        <v>12.2</v>
+        <v>9.1499999999999986</v>
       </c>
       <c r="V41" s="24">
         <f t="shared" si="202"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W41" s="50">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Y41" s="25">
         <f t="shared" si="204"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z41" s="26">
         <f t="shared" si="205"/>
-        <v>0</v>
+        <v>6.2060000000000004</v>
       </c>
       <c r="AA41" s="10">
         <f t="shared" si="206"/>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AB41" s="19">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>9.3090000000000011</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
@@ -6015,28 +6059,30 @@
       </c>
       <c r="I42" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>21.087</v>
       </c>
       <c r="K42" s="54">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L42" s="124">
         <f t="shared" si="12"/>
-        <v>49.203000000000003</v>
-      </c>
-      <c r="M42" s="20"/>
+        <v>28.116</v>
+      </c>
+      <c r="M42" s="20">
+        <v>3</v>
+      </c>
       <c r="N42" s="55">
         <f t="shared" si="13"/>
         <v>8.75</v>
       </c>
       <c r="O42" s="55">
         <f t="shared" si="14"/>
-        <v>8.75</v>
+        <v>5.75</v>
       </c>
       <c r="P42" s="17">
         <v>1.75</v>
@@ -6070,19 +6116,19 @@
       </c>
       <c r="Y42" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z42" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>7.0289999999999999</v>
       </c>
       <c r="AA42" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="AB42" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>21.087</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
@@ -6115,28 +6161,30 @@
       </c>
       <c r="I43" s="24">
         <f>IF(O43&gt;P43,D43-O43+P43,D43)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="J43" s="53">
         <f>I43*E43</f>
-        <v>0</v>
+        <v>18.879000000000001</v>
       </c>
       <c r="K43" s="54">
         <f>D43-I43</f>
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="L43" s="124">
         <f>K43*E43</f>
-        <v>32.364000000000004</v>
-      </c>
-      <c r="M43" s="20"/>
+        <v>13.484999999999999</v>
+      </c>
+      <c r="M43" s="20">
+        <v>1.75</v>
+      </c>
       <c r="N43" s="55">
         <f>P43+D43</f>
         <v>3.75</v>
       </c>
       <c r="O43" s="55">
         <f t="shared" ref="O43:O51" si="227">N43-M43</f>
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="P43" s="17">
         <v>0.75</v>
@@ -6170,19 +6218,19 @@
       </c>
       <c r="Y43" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z43" s="26">
         <f>IF(ISERROR(((V43*Q43)+(I43*E43))/(I43+V43)),0,((V43*Q43)+(I43*E43))/(I43+V43))</f>
-        <v>0</v>
+        <v>10.788</v>
       </c>
       <c r="AA43" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.2249999999999999</v>
       </c>
       <c r="AB43" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>18.879000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
@@ -6225,14 +6273,16 @@
         <f>K44*E44</f>
         <v>0</v>
       </c>
-      <c r="M44" s="20"/>
+      <c r="M44" s="20">
+        <v>0.25</v>
+      </c>
       <c r="N44" s="55">
         <f>P44+D44</f>
         <v>2</v>
       </c>
       <c r="O44" s="55">
         <f t="shared" ref="O44" si="228">N44-M44</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P44" s="17">
         <v>2</v>
@@ -6250,35 +6300,35 @@
       </c>
       <c r="T44" s="57">
         <f t="shared" ref="T44" si="231">P44-V44</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U44" s="58">
         <f t="shared" ref="U44" si="232">T44*Q44</f>
-        <v>19.98</v>
+        <v>17.482500000000002</v>
       </c>
       <c r="V44" s="24">
         <f t="shared" ref="V44" si="233">IF(O44&lt;P44,P44-O44,0)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W44" s="50">
         <f t="shared" ref="W44" si="234">V44*Q44</f>
-        <v>0</v>
+        <v>2.4975000000000001</v>
       </c>
       <c r="Y44" s="25">
         <f t="shared" ref="Y44" si="235">V44+I44</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z44" s="26">
         <f>IF(ISERROR(((V44*Q44)+(I44*E44))/(I44+V44)),0,((V44*Q44)+(I44*E44))/(I44+V44))</f>
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="AA44" s="10">
         <f t="shared" ref="AA44" si="236">Y44*C44</f>
-        <v>0</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AB44" s="19">
         <f t="shared" ref="AB44" si="237">Y44*Z44</f>
-        <v>0</v>
+        <v>2.4975000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -6407,28 +6457,30 @@
       </c>
       <c r="I46" s="24">
         <f t="shared" ref="I46" si="241">IF(O46&gt;P46,D46-O46+P46,D46)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="53">
         <f t="shared" ref="J46" si="242">I46*E46</f>
-        <v>0</v>
+        <v>4.6680000000000001</v>
       </c>
       <c r="K46" s="54">
         <f t="shared" ref="K46" si="243">D46-I46</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="124">
         <f t="shared" ref="L46" si="244">K46*E46</f>
-        <v>4.6680000000000001</v>
-      </c>
-      <c r="M46" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="20">
+        <v>3.25</v>
+      </c>
       <c r="N46" s="55">
         <f t="shared" ref="N46" si="245">P46+D46</f>
         <v>5</v>
       </c>
       <c r="O46" s="55">
         <f t="shared" ref="O46" si="246">N46-M46</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="P46" s="17">
         <v>4</v>
@@ -6446,35 +6498,35 @@
       </c>
       <c r="T46" s="57">
         <f t="shared" ref="T46" si="249">P46-V46</f>
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="U46" s="58">
         <f t="shared" ref="U46" si="250">T46*Q46</f>
-        <v>18.600000000000001</v>
+        <v>8.1375000000000011</v>
       </c>
       <c r="V46" s="24">
         <f t="shared" ref="V46" si="251">IF(O46&lt;P46,P46-O46,0)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W46" s="50">
         <f t="shared" ref="W46" si="252">V46*Q46</f>
-        <v>0</v>
+        <v>10.4625</v>
       </c>
       <c r="Y46" s="25">
         <f t="shared" ref="Y46" si="253">V46+I46</f>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Z46" s="26">
         <f t="shared" ref="Z46" si="254">IF(ISERROR(((V46*Q46)+(I46*E46))/(I46+V46)),0,((V46*Q46)+(I46*E46))/(I46+V46))</f>
-        <v>0</v>
+        <v>4.6555384615384616</v>
       </c>
       <c r="AA46" s="10">
         <f t="shared" ref="AA46" si="255">Y46*C46</f>
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="AB46" s="19">
         <f t="shared" ref="AB46" si="256">Y46*Z46</f>
-        <v>0</v>
+        <v>15.1305</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
@@ -6703,28 +6755,30 @@
       </c>
       <c r="I49" s="24">
         <f t="shared" ref="I49" si="268">IF(O49&gt;P49,D49-O49+P49,D49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="53">
         <f t="shared" ref="J49" si="269">I49*E49</f>
-        <v>0</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="K49" s="54">
         <f t="shared" ref="K49" si="270">D49-I49</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L49" s="124">
         <f t="shared" ref="L49" si="271">K49*E49</f>
-        <v>7.1280000000000001</v>
-      </c>
-      <c r="M49" s="20"/>
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="M49" s="20">
+        <v>1</v>
+      </c>
       <c r="N49" s="55">
         <f t="shared" ref="N49" si="272">P49+D49</f>
         <v>6</v>
       </c>
       <c r="O49" s="55">
         <f t="shared" ref="O49" si="273">N49-M49</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P49" s="17">
         <v>0</v>
@@ -6758,19 +6812,19 @@
       </c>
       <c r="Y49" s="25">
         <f t="shared" ref="Y49" si="280">V49+I49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="26">
         <f t="shared" ref="Z49" si="281">IF(ISERROR(((V49*Q49)+(I49*E49))/(I49+V49)),0,((V49*Q49)+(I49*E49))/(I49+V49))</f>
-        <v>0</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="AA49" s="10">
         <f t="shared" ref="AA49" si="282">Y49*C49</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB49" s="19">
         <f t="shared" ref="AB49" si="283">Y49*Z49</f>
-        <v>0</v>
+        <v>1.1879999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
@@ -6899,28 +6953,30 @@
       </c>
       <c r="I51" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J51" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>45.54</v>
       </c>
       <c r="K51" s="54">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L51" s="124">
         <f t="shared" si="12"/>
-        <v>59.4</v>
-      </c>
-      <c r="M51" s="20"/>
+        <v>13.86</v>
+      </c>
+      <c r="M51" s="20">
+        <v>23</v>
+      </c>
       <c r="N51" s="55">
         <f t="shared" si="238"/>
         <v>45</v>
       </c>
       <c r="O51" s="55">
         <f t="shared" si="227"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="P51" s="17">
         <v>15</v>
@@ -6954,19 +7010,19 @@
       </c>
       <c r="Y51" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z51" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AA51" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="AB51" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>45.54</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
@@ -6979,44 +7035,50 @@
       <c r="C52" s="57">
         <v>0.25</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
+      <c r="D52" s="15">
+        <v>96</v>
+      </c>
+      <c r="E52" s="16">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="F52" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="G52" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>104.64000000000001</v>
       </c>
       <c r="H52" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I52" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J52" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="K52" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L52" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="20"/>
+        <v>61.040000000000006</v>
+      </c>
+      <c r="M52" s="20">
+        <v>40</v>
+      </c>
       <c r="N52" s="55">
         <f t="shared" ref="N52:N77" si="303">P52+D52</f>
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="O52" s="55">
         <f t="shared" ref="O52:O77" si="304">N52-M52</f>
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="P52" s="17">
         <v>13</v>
@@ -7050,19 +7112,19 @@
       </c>
       <c r="Y52" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z52" s="26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AA52" s="10">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB52" s="19">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
@@ -7075,19 +7137,23 @@
       <c r="C53" s="57">
         <v>1</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
+      <c r="D53" s="15">
+        <v>60</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0.99</v>
+      </c>
       <c r="F53" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G53" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="H53" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I53" s="24">
         <f t="shared" si="9"/>
@@ -7099,20 +7165,20 @@
       </c>
       <c r="K53" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L53" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="M53" s="20"/>
       <c r="N53" s="55">
         <f t="shared" si="303"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O53" s="55">
         <f t="shared" si="304"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P53" s="17">
         <v>0</v>
@@ -7459,19 +7525,23 @@
       <c r="C57" s="57">
         <v>1.5</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="15">
+        <v>141</v>
+      </c>
+      <c r="E57" s="16">
+        <v>1.35</v>
+      </c>
       <c r="F57" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G57" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>190.35000000000002</v>
       </c>
       <c r="H57" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>211.5</v>
       </c>
       <c r="I57" s="24">
         <f t="shared" si="9"/>
@@ -7483,20 +7553,20 @@
       </c>
       <c r="K57" s="54">
         <f t="shared" ref="K57" si="314">D57-I57</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="L57" s="124">
         <f t="shared" ref="L57" si="315">K57*E57</f>
-        <v>0</v>
+        <v>190.35000000000002</v>
       </c>
       <c r="M57" s="20"/>
       <c r="N57" s="55">
         <f t="shared" ref="N57:N62" si="316">P57+D57</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="O57" s="55">
         <f t="shared" ref="O57:O62" si="317">N57-M57</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="P57" s="17">
         <v>0</v>
@@ -7651,19 +7721,23 @@
       <c r="C59" s="57">
         <v>1</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="16"/>
+      <c r="D59" s="15">
+        <v>10</v>
+      </c>
+      <c r="E59" s="16">
+        <v>0.79</v>
+      </c>
       <c r="F59" s="51">
         <f t="shared" ref="F59:F60" si="330">E59/C59</f>
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="G59" s="52">
         <f t="shared" ref="G59" si="331">E59*D59</f>
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="H59" s="50">
         <f t="shared" ref="H59" si="332">C59*D59</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I59" s="24">
         <f t="shared" si="9"/>
@@ -7675,20 +7749,20 @@
       </c>
       <c r="K59" s="54">
         <f t="shared" ref="K59" si="334">D59-I59</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L59" s="124">
         <f t="shared" ref="L59" si="335">K59*E59</f>
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="M59" s="20"/>
       <c r="N59" s="55">
         <f>P59+D59</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O59" s="55">
         <f>N59-M59</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P59" s="17">
         <v>0</v>
@@ -7843,19 +7917,23 @@
       <c r="C61" s="57">
         <v>2</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="16"/>
+      <c r="D61" s="15">
+        <v>50</v>
+      </c>
+      <c r="E61" s="16">
+        <v>1.49</v>
+      </c>
       <c r="F61" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.745</v>
       </c>
       <c r="G61" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="H61" s="50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="24">
         <f t="shared" si="9"/>
@@ -7867,20 +7945,20 @@
       </c>
       <c r="K61" s="54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L61" s="124">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="M61" s="20"/>
       <c r="N61" s="55">
         <f t="shared" si="316"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O61" s="55">
         <f t="shared" si="317"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P61" s="17">
         <v>0</v>
@@ -8247,28 +8325,30 @@
       </c>
       <c r="I65" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K65" s="54">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" s="124">
         <f t="shared" si="12"/>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="M65" s="20"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M65" s="20">
+        <v>1</v>
+      </c>
       <c r="N65" s="55">
         <f t="shared" si="303"/>
         <v>3</v>
       </c>
       <c r="O65" s="55">
         <f t="shared" si="304"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P65" s="17">
         <v>1</v>
@@ -8302,19 +8382,19 @@
       </c>
       <c r="Y65" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65" s="26">
         <f t="shared" si="318"/>
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="AA65" s="10">
         <f t="shared" si="319"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65" s="19">
         <f t="shared" si="320"/>
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
@@ -8347,28 +8427,30 @@
       </c>
       <c r="I66" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J66" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>19.404</v>
       </c>
       <c r="K66" s="54">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L66" s="124">
         <f t="shared" si="12"/>
-        <v>52.92</v>
-      </c>
-      <c r="M66" s="20"/>
+        <v>33.515999999999998</v>
+      </c>
+      <c r="M66" s="20">
+        <v>11</v>
+      </c>
       <c r="N66" s="55">
         <f t="shared" si="303"/>
         <v>30</v>
       </c>
       <c r="O66" s="55">
         <f t="shared" si="304"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P66" s="17">
         <v>0</v>
@@ -8402,19 +8484,19 @@
       </c>
       <c r="Y66" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z66" s="26">
         <f t="shared" si="318"/>
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="AA66" s="10">
         <f t="shared" si="319"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB66" s="19">
         <f t="shared" si="320"/>
-        <v>0</v>
+        <v>19.404</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
@@ -8447,28 +8529,30 @@
       </c>
       <c r="I67" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" s="53">
         <f t="shared" ref="J67:J76" si="374">I67*E67</f>
-        <v>0</v>
+        <v>4.9319999999999995</v>
       </c>
       <c r="K67" s="54">
         <f t="shared" ref="K67:K76" si="375">D67-I67</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L67" s="124">
         <f t="shared" ref="L67:L76" si="376">K67*E67</f>
-        <v>9.863999999999999</v>
-      </c>
-      <c r="M67" s="20"/>
+        <v>4.9319999999999995</v>
+      </c>
+      <c r="M67" s="20">
+        <v>3</v>
+      </c>
       <c r="N67" s="55">
         <f t="shared" ref="N67:N76" si="377">P67+D67</f>
         <v>6</v>
       </c>
       <c r="O67" s="55">
         <f t="shared" ref="O67:O76" si="378">N67-M67</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P67" s="17">
         <v>0</v>
@@ -8502,19 +8586,19 @@
       </c>
       <c r="Y67" s="25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z67" s="26">
         <f t="shared" si="318"/>
-        <v>0</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="AA67" s="10">
         <f t="shared" si="319"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AB67" s="19">
         <f t="shared" si="320"/>
-        <v>0</v>
+        <v>4.9319999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
@@ -8623,19 +8707,23 @@
       <c r="C69" s="57">
         <v>1.5</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16"/>
+      <c r="D69" s="15">
+        <v>93</v>
+      </c>
+      <c r="E69" s="16">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="F69" s="51">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>0.19333333333333333</v>
       </c>
       <c r="G69" s="52">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>26.97</v>
       </c>
       <c r="H69" s="50">
         <f t="shared" si="373"/>
-        <v>0</v>
+        <v>139.5</v>
       </c>
       <c r="I69" s="24">
         <f t="shared" si="9"/>
@@ -8647,20 +8735,20 @@
       </c>
       <c r="K69" s="54">
         <f t="shared" si="375"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="L69" s="124">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>26.97</v>
       </c>
       <c r="M69" s="20"/>
       <c r="N69" s="55">
         <f t="shared" si="379"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="O69" s="55">
         <f t="shared" si="380"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="P69" s="17">
         <v>0</v>
@@ -8815,19 +8903,23 @@
       <c r="C71" s="57">
         <v>25</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="15">
+        <v>1</v>
+      </c>
+      <c r="E71" s="16">
+        <v>58</v>
+      </c>
       <c r="F71" s="51">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G71" s="52">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H71" s="50">
         <f t="shared" si="373"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I71" s="24">
         <f>IF(O71&gt;P71,D71-O71+P71,D71)</f>
@@ -8839,20 +8931,20 @@
       </c>
       <c r="K71" s="54">
         <f t="shared" si="375"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="124">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="M71" s="20"/>
       <c r="N71" s="55">
         <f t="shared" si="379"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="55">
         <f t="shared" si="380"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="17">
         <v>0</v>
@@ -8911,19 +9003,23 @@
       <c r="C72" s="57">
         <v>50</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="16"/>
+      <c r="D72" s="15">
+        <v>14</v>
+      </c>
+      <c r="E72" s="16">
+        <v>110</v>
+      </c>
       <c r="F72" s="51">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G72" s="52">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="H72" s="50">
         <f t="shared" si="373"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I72" s="24">
         <f>IF(O72&gt;P72,D72-O72+P72,D72)</f>
@@ -8935,20 +9031,20 @@
       </c>
       <c r="K72" s="54">
         <f t="shared" si="375"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L72" s="124">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="M72" s="20"/>
       <c r="N72" s="55">
         <f t="shared" si="379"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O72" s="55">
         <f t="shared" si="380"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P72" s="17">
         <v>0</v>
@@ -9007,19 +9103,23 @@
       <c r="C73" s="57">
         <v>0.5</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="16"/>
+      <c r="D73" s="15">
+        <v>2</v>
+      </c>
+      <c r="E73" s="16">
+        <v>0.79</v>
+      </c>
       <c r="F73" s="51">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="G73" s="52">
         <f t="shared" si="372"/>
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="H73" s="50">
         <f t="shared" si="373"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="24">
         <f t="shared" si="9"/>
@@ -9031,20 +9131,20 @@
       </c>
       <c r="K73" s="54">
         <f t="shared" si="375"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" s="124">
         <f t="shared" si="376"/>
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M73" s="20"/>
       <c r="N73" s="55">
         <f t="shared" si="379"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O73" s="55">
         <f t="shared" si="380"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P73" s="17">
         <v>0</v>
@@ -9486,18 +9586,18 @@
       <c r="F78" s="51"/>
       <c r="G78" s="60">
         <f>SUM(G3:G77)</f>
-        <v>2009.757996176</v>
+        <v>4073.0979961759999</v>
       </c>
       <c r="H78" s="50"/>
       <c r="I78" s="61"/>
       <c r="J78" s="62">
         <f>SUM(J3:J77)</f>
-        <v>0</v>
+        <v>720.19779385800018</v>
       </c>
       <c r="K78" s="63"/>
       <c r="L78" s="64">
         <f>SUM(L3:L77)</f>
-        <v>2009.757996176</v>
+        <v>3352.9002023180001</v>
       </c>
       <c r="M78" s="65"/>
       <c r="N78" s="66"/>
@@ -9512,19 +9612,19 @@
       <c r="T78" s="57"/>
       <c r="U78" s="69">
         <f>SUM(U3:U77)</f>
-        <v>911.22285187815123</v>
+        <v>672.84289822592098</v>
       </c>
       <c r="V78" s="50"/>
       <c r="W78" s="134">
         <f>SUM(W3:W77)</f>
-        <v>0</v>
+        <v>238.37995365223014</v>
       </c>
       <c r="Y78" s="8"/>
       <c r="Z78" s="19"/>
       <c r="AA78" s="19"/>
       <c r="AB78" s="23">
         <f>SUM(AB3:AB77)</f>
-        <v>0</v>
+        <v>958.57774751023021</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
@@ -9670,11 +9770,11 @@
       </c>
       <c r="K84" s="74">
         <f>J78+W78</f>
-        <v>0</v>
+        <v>958.57774751023032</v>
       </c>
       <c r="L84" s="74">
         <f>L78+U78</f>
-        <v>2920.9808480541515</v>
+        <v>4025.7431005439212</v>
       </c>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
@@ -9804,7 +9904,7 @@
       </c>
       <c r="K89" s="80">
         <f>ROUND(+G78,2)</f>
-        <v>2009.76</v>
+        <v>4073.1</v>
       </c>
       <c r="L89" s="32"/>
       <c r="M89" s="32"/>
@@ -9828,7 +9928,7 @@
       </c>
       <c r="K90" s="82">
         <f>ROUND(-L84,2)</f>
-        <v>-2920.98</v>
+        <v>-4025.74</v>
       </c>
       <c r="L90" s="32"/>
       <c r="M90" s="32"/>
@@ -9852,7 +9952,7 @@
       </c>
       <c r="K91" s="80">
         <f>K88+K89+K90</f>
-        <v>0</v>
+        <v>958.57999999999993</v>
       </c>
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
@@ -10258,7 +10358,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10315,15 +10415,15 @@
       </c>
       <c r="C6" s="97">
         <f>'Festkosten-Depotwert'!G78</f>
-        <v>2009.757996176</v>
+        <v>4073.0979961759999</v>
       </c>
       <c r="D6" s="98">
         <f>'Festkosten-Depotwert'!L84</f>
-        <v>2920.9808480541515</v>
+        <v>4025.7431005439212</v>
       </c>
       <c r="E6" s="99">
         <f>'Festkosten-Depotwert'!K84</f>
-        <v>0</v>
+        <v>958.57774751023032</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -10334,19 +10434,19 @@
     <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="101" t="str">
         <f>IF(B13&lt;0,"Mehrverbrauch","Minderverbrauch")</f>
-        <v>Mehrverbrauch</v>
+        <v>Minderverbrauch</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="102" t="str">
         <f>IF(B13&lt;0,"(Gewinnminderung)","(Gewinnerhöhung)")</f>
-        <v>(Gewinnminderung)</v>
+        <v>(Gewinnerhöhung)</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="103">
         <f>-(D6-C6)</f>
-        <v>-911.22285187815146</v>
+        <v>47.354895632078751</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -10388,19 +10488,19 @@
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="106">
         <f>C6</f>
-        <v>2009.757996176</v>
+        <v>4073.0979961759999</v>
       </c>
       <c r="C20" s="98">
         <f>'Festkosten-Depotwert'!L78</f>
-        <v>2009.757996176</v>
+        <v>3352.9002023180001</v>
       </c>
       <c r="D20" s="107">
         <f>B20-C20</f>
-        <v>0</v>
+        <v>720.19779385799984</v>
       </c>
       <c r="E20" s="108">
         <f>'Festkosten-Depotwert'!U78</f>
-        <v>911.22285187815123</v>
+        <v>672.84289822592098</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -10448,11 +10548,11 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11996,15 +12096,15 @@
       </c>
       <c r="E51" s="116">
         <f>'Festkosten-Depotwert'!P52+'Festkosten-Depotwert'!D52</f>
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F51" s="117">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="G51" s="119">
         <f t="shared" si="1"/>
-        <v>20.75</v>
+        <v>0</v>
       </c>
       <c r="H51" s="49">
         <f t="shared" si="2"/>
@@ -12027,15 +12127,15 @@
       </c>
       <c r="E52" s="116">
         <f>'Festkosten-Depotwert'!P53+'Festkosten-Depotwert'!D53</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F52" s="117">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G52" s="119">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="H52" s="49">
         <f t="shared" si="2"/>
@@ -12111,7 +12211,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="15">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E55" s="116">
         <f>'Festkosten-Depotwert'!P56+'Festkosten-Depotwert'!D56</f>
@@ -12119,15 +12219,15 @@
       </c>
       <c r="F55" s="117">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G55" s="119">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="H55" s="49">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="I55" s="125"/>
       <c r="M55" s="120"/>
@@ -12145,7 +12245,7 @@
       <c r="D56" s="15"/>
       <c r="E56" s="116">
         <f>'Festkosten-Depotwert'!P57+'Festkosten-Depotwert'!D57</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="F56" s="117">
         <f t="shared" si="0"/>
@@ -12207,15 +12307,15 @@
       </c>
       <c r="E58" s="116">
         <f>'Festkosten-Depotwert'!P59+'Festkosten-Depotwert'!D59</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F58" s="117">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G58" s="119">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H58" s="49">
         <f t="shared" si="2"/>
@@ -12269,15 +12369,15 @@
       </c>
       <c r="E60" s="116">
         <f>'Festkosten-Depotwert'!P61+'Festkosten-Depotwert'!D61</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F60" s="117">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G60" s="119">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="H60" s="49">
         <f t="shared" si="2"/>
@@ -12512,15 +12612,15 @@
       </c>
       <c r="E68" s="116">
         <f>'Festkosten-Depotwert'!P69+'Festkosten-Depotwert'!D69</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F68" s="117">
         <f t="shared" si="21"/>
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="G68" s="119">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>13.5</v>
       </c>
       <c r="H68" s="49">
         <f t="shared" si="2"/>
@@ -12572,15 +12672,15 @@
       </c>
       <c r="E70" s="116">
         <f>'Festkosten-Depotwert'!P71+'Festkosten-Depotwert'!D71</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="117">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70" s="119">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H70" s="49">
         <f t="shared" si="2"/>
@@ -12599,23 +12699,23 @@
         <v>50</v>
       </c>
       <c r="D71" s="15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E71" s="116">
         <f>'Festkosten-Depotwert'!P72+'Festkosten-Depotwert'!D72</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F71" s="117">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G71" s="119">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>50</v>
       </c>
       <c r="H71" s="49">
         <f t="shared" si="2"/>
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M71" s="120"/>
     </row>
@@ -12634,15 +12734,15 @@
       </c>
       <c r="E72" s="116">
         <f>'Festkosten-Depotwert'!P73+'Festkosten-Depotwert'!D73</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="117">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G72" s="119">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H72" s="49">
         <f t="shared" si="2"/>
@@ -13192,7 +13292,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2015/Getränke/Getränkebestand Glarea Nox 2015.xlsx
+++ b/trunk/2015/Getränke/Getränkebestand Glarea Nox 2015.xlsx
@@ -47,6 +47,56 @@
           </rPr>
           <t xml:space="preserve">
 Verbrauch 3 Fl., da 1 Fl nicht verzeichneter Altbestand verbraucht wurde</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D71" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Für Verbrauch beachten, dass 1 Faß gesponsert wurde (hier 
+nicht erfasst)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Für Verbrauch beachten, dass 1 Faß gesponsert wurde (hier 
+nicht erfasst)</t>
         </r>
       </text>
     </comment>
@@ -2010,10 +2060,10 @@
   <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10549,7 +10599,7 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
